--- a/graphs/resultsc.xlsx
+++ b/graphs/resultsc.xlsx
@@ -1,3 +1,22 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet name="expander" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="regular" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="half" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="random" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="recolor_j" sheetId="5" state="visible" r:id="rId5"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
+</file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">

--- a/graphs/resultsc.xlsx
+++ b/graphs/resultsc.xlsx
@@ -16,6 +16,128 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/graphs/resultsc.xlsx
+++ b/graphs/resultsc.xlsx
@@ -573,4 +573,80 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_steps</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>productive_steps</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>bias_0</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bias_T</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>conductance</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>e_exoansion</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>n_expansion</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/graphs/resultsc.xlsx
+++ b/graphs/resultsc.xlsx
@@ -573,80 +573,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>k</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>total_steps</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>productive_steps</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>bias_0</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>bias_T</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>conductance</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>e_exoansion</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>n_expansion</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/graphs/resultsc.xlsx
+++ b/graphs/resultsc.xlsx
@@ -1,144 +1,3 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
-  </bookViews>
-  <sheets>
-    <sheet name="expander" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="regular" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="half" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="random" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="recolor_j" sheetId="5" state="visible" r:id="rId5"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
-</file>
-
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-  </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-</styleSheet>
-</file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">

--- a/graphs/resultsc.xlsx
+++ b/graphs/resultsc.xlsx
@@ -1,3 +1,144 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet name="expander" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="regular" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="half" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="random" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="recolor_j" sheetId="5" state="visible" r:id="rId5"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+</styleSheet>
+</file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
@@ -288,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -351,6 +492,111 @@
         <is>
           <t>n_expansion</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E2" t="n">
+        <v>744</v>
+      </c>
+      <c r="F2" t="n">
+        <v>580</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>42</v>
+      </c>
+      <c r="E3" t="n">
+        <v>28034</v>
+      </c>
+      <c r="F3" t="n">
+        <v>21884</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2407407407407407</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.888888888888889</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.833333333333333</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="E4" t="n">
+        <v>559</v>
+      </c>
+      <c r="F4" t="n">
+        <v>398</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.666666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -432,4 +678,774 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_steps</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>productive_steps</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>bias_0</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bias_T</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>conductance</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>e_exoansion</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>n_expansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E2" t="n">
+        <v>275</v>
+      </c>
+      <c r="F2" t="n">
+        <v>214</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3" t="n">
+        <v>36</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>182</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3322400</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2938053</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.03296703296703297</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1458333333333333</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.952380952380952</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>42</v>
+      </c>
+      <c r="E4" t="n">
+        <v>17887</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13931</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2407407407407407</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.888888888888889</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.833333333333333</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>96</v>
+      </c>
+      <c r="E5" t="n">
+        <v>85572</v>
+      </c>
+      <c r="F5" t="n">
+        <v>63670</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.025</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24</v>
+      </c>
+      <c r="E6" t="n">
+        <v>733</v>
+      </c>
+      <c r="F6" t="n">
+        <v>479</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>24</v>
+      </c>
+      <c r="E7" t="n">
+        <v>388</v>
+      </c>
+      <c r="F7" t="n">
+        <v>294</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_steps</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>productive_steps</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>bias_0</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bias_T</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>conductance</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>e_exoansion</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>n_expansion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E2" t="n">
+        <v>222</v>
+      </c>
+      <c r="F2" t="n">
+        <v>158</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>42</v>
+      </c>
+      <c r="E3" t="n">
+        <v>381</v>
+      </c>
+      <c r="F3" t="n">
+        <v>310</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2407407407407407</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.888888888888889</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.833333333333333</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>16</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>96</v>
+      </c>
+      <c r="E4" t="n">
+        <v>630</v>
+      </c>
+      <c r="F4" t="n">
+        <v>465</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.025</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24</v>
+      </c>
+      <c r="E5" t="n">
+        <v>239</v>
+      </c>
+      <c r="F5" t="n">
+        <v>179</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24</v>
+      </c>
+      <c r="E6" t="n">
+        <v>54</v>
+      </c>
+      <c r="F6" t="n">
+        <v>45</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_steps</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>productive_steps</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>bias_0</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bias_T</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>conductance</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>e_exoansion</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>n_expansion</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E2" t="n">
+        <v>927</v>
+      </c>
+      <c r="F2" t="n">
+        <v>680</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24</v>
+      </c>
+      <c r="E3" t="n">
+        <v>98</v>
+      </c>
+      <c r="F3" t="n">
+        <v>78</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="E4" t="n">
+        <v>327</v>
+      </c>
+      <c r="F4" t="n">
+        <v>242</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>96</v>
+      </c>
+      <c r="E5" t="n">
+        <v>49101</v>
+      </c>
+      <c r="F5" t="n">
+        <v>36670</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.025</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/graphs/resultsc.xlsx
+++ b/graphs/resultsc.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,10 +508,10 @@
         <v>30</v>
       </c>
       <c r="E2" t="n">
-        <v>744</v>
+        <v>1276</v>
       </c>
       <c r="F2" t="n">
-        <v>580</v>
+        <v>948</v>
       </c>
       <c r="G2" t="n">
         <v>0.2</v>
@@ -527,76 +527,6 @@
       </c>
       <c r="K2" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>6</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>42</v>
-      </c>
-      <c r="E3" t="n">
-        <v>28034</v>
-      </c>
-      <c r="F3" t="n">
-        <v>21884</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.2407407407407407</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.888888888888889</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.833333333333333</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>24</v>
-      </c>
-      <c r="E4" t="n">
-        <v>559</v>
-      </c>
-      <c r="F4" t="n">
-        <v>398</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.666666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -686,7 +616,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,22 +683,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="E2" t="n">
-        <v>275</v>
+        <v>2557</v>
       </c>
       <c r="F2" t="n">
-        <v>214</v>
+        <v>1939</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -777,48 +707,48 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1457270408163265</v>
       </c>
       <c r="J2" t="n">
-        <v>2.666666666666667</v>
+        <v>8.160714285714286</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>1.892857142857143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="E3" t="n">
-        <v>3322400</v>
+        <v>4420000</v>
       </c>
       <c r="F3" t="n">
-        <v>2938053</v>
+        <v>4102955</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03296703296703297</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.10375</v>
       </c>
       <c r="J3" t="n">
-        <v>10.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>1.952380952380952</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="4">
@@ -826,19 +756,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>17887</v>
+        <v>1779</v>
       </c>
       <c r="F4" t="n">
-        <v>13931</v>
+        <v>1275</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -847,48 +777,48 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2407407407407407</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J4" t="n">
-        <v>2.888888888888889</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="K4" t="n">
-        <v>1.833333333333333</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E5" t="n">
-        <v>85572</v>
+        <v>1434</v>
       </c>
       <c r="F5" t="n">
-        <v>63670</v>
+        <v>924</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.33</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J5" t="n">
-        <v>6.6</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>2.025</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -899,51 +829,51 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E6" t="n">
-        <v>733</v>
+        <v>21336</v>
       </c>
       <c r="F6" t="n">
-        <v>479</v>
+        <v>16680</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>2.888888888888889</v>
       </c>
       <c r="K6" t="n">
-        <v>1.666666666666667</v>
+        <v>1.833333333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E7" t="n">
-        <v>388</v>
+        <v>26655</v>
       </c>
       <c r="F7" t="n">
-        <v>294</v>
+        <v>20913</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -952,13 +882,48 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4375</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="J7" t="n">
-        <v>1.75</v>
+        <v>2.888888888888889</v>
       </c>
       <c r="K7" t="n">
-        <v>2.25</v>
+        <v>1.833333333333333</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>42</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2054</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1507</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.2407407407407407</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.888888888888889</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.833333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -972,7 +937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1039,37 +1004,37 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="E2" t="n">
-        <v>222</v>
+        <v>2443</v>
       </c>
       <c r="F2" t="n">
-        <v>158</v>
+        <v>1748</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.10375</v>
       </c>
       <c r="J2" t="n">
-        <v>2.666666666666667</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="3">
@@ -1077,372 +1042,69 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E3" t="n">
-        <v>381</v>
+        <v>104</v>
       </c>
       <c r="F3" t="n">
-        <v>310</v>
+        <v>87</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2407407407407407</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J3" t="n">
-        <v>2.888888888888889</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="K3" t="n">
-        <v>1.833333333333333</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E4" t="n">
-        <v>630</v>
+        <v>109</v>
       </c>
       <c r="F4" t="n">
-        <v>465</v>
+        <v>90</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.33</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J4" t="n">
-        <v>6.6</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>2.025</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>6</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>24</v>
-      </c>
-      <c r="E5" t="n">
-        <v>239</v>
-      </c>
-      <c r="F5" t="n">
-        <v>179</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
         <v>1.666666666666667</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>8</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>24</v>
-      </c>
-      <c r="E6" t="n">
-        <v>54</v>
-      </c>
-      <c r="F6" t="n">
-        <v>45</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>k</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>total_steps</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>productive_steps</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>bias_0</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>bias_T</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>conductance</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>e_exoansion</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>n_expansion</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>j</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30</v>
-      </c>
-      <c r="E2" t="n">
-        <v>927</v>
-      </c>
-      <c r="F2" t="n">
-        <v>680</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>6</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>24</v>
-      </c>
-      <c r="E3" t="n">
-        <v>98</v>
-      </c>
-      <c r="F3" t="n">
-        <v>78</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>24</v>
-      </c>
-      <c r="E4" t="n">
-        <v>327</v>
-      </c>
-      <c r="F4" t="n">
-        <v>242</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>16</v>
-      </c>
-      <c r="B5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E5" t="n">
-        <v>49101</v>
-      </c>
-      <c r="F5" t="n">
-        <v>36670</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="J5" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.025</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/resultsc.xlsx
+++ b/graphs/resultsc.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,10 +508,10 @@
         <v>30</v>
       </c>
       <c r="E2" t="n">
-        <v>1276</v>
+        <v>422</v>
       </c>
       <c r="F2" t="n">
-        <v>948</v>
+        <v>305</v>
       </c>
       <c r="G2" t="n">
         <v>0.2</v>
@@ -527,6 +527,216 @@
       </c>
       <c r="K2" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>42</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10832</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8465</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2407407407407407</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.888888888888889</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.833333333333333</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="E4" t="n">
+        <v>459</v>
+      </c>
+      <c r="F4" t="n">
+        <v>311</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24</v>
+      </c>
+      <c r="E5" t="n">
+        <v>81</v>
+      </c>
+      <c r="F5" t="n">
+        <v>64</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="n">
+        <v>682</v>
+      </c>
+      <c r="F6" t="n">
+        <v>518</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>70</v>
+      </c>
+      <c r="E7" t="n">
+        <v>23743</v>
+      </c>
+      <c r="F7" t="n">
+        <v>18647</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.733333333333333</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>40</v>
+      </c>
+      <c r="E8" t="n">
+        <v>605</v>
+      </c>
+      <c r="F8" t="n">
+        <v>390</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5.733333333333333</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.266666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -616,7 +826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,22 +893,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
-        <v>2557</v>
+        <v>403</v>
       </c>
       <c r="F2" t="n">
-        <v>1939</v>
+        <v>293</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -707,48 +917,48 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1457270408163265</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J2" t="n">
-        <v>8.160714285714286</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="K2" t="n">
-        <v>1.892857142857143</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="E3" t="n">
-        <v>4420000</v>
+        <v>611</v>
       </c>
       <c r="F3" t="n">
-        <v>4102955</v>
+        <v>439</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.10375</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="J3" t="n">
-        <v>8.300000000000001</v>
+        <v>2.888888888888889</v>
       </c>
       <c r="K3" t="n">
-        <v>1.9</v>
+        <v>1.833333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -756,22 +966,22 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E4" t="n">
-        <v>1779</v>
+        <v>221</v>
       </c>
       <c r="F4" t="n">
-        <v>1275</v>
+        <v>146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -780,65 +990,65 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="J4" t="n">
-        <v>2.666666666666667</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>24</v>
       </c>
       <c r="E5" t="n">
-        <v>1434</v>
+        <v>966</v>
       </c>
       <c r="F5" t="n">
-        <v>924</v>
+        <v>663</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4375</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="K5" t="n">
-        <v>1.666666666666667</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>21336</v>
+        <v>483</v>
       </c>
       <c r="F6" t="n">
-        <v>16680</v>
+        <v>353</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -847,18 +1057,18 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2407407407407407</v>
+        <v>0.3125</v>
       </c>
       <c r="J6" t="n">
-        <v>2.888888888888889</v>
+        <v>2.5</v>
       </c>
       <c r="K6" t="n">
-        <v>1.833333333333333</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
         <v>6</v>
@@ -867,13 +1077,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E7" t="n">
-        <v>26655</v>
+        <v>453</v>
       </c>
       <c r="F7" t="n">
-        <v>20913</v>
+        <v>338</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -882,48 +1092,83 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2407407407407407</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="J7" t="n">
-        <v>2.888888888888889</v>
+        <v>2.8</v>
       </c>
       <c r="K7" t="n">
-        <v>1.833333333333333</v>
+        <v>1.733333333333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" t="n">
-        <v>2054</v>
+        <v>320</v>
       </c>
       <c r="F8" t="n">
-        <v>1507</v>
+        <v>269</v>
       </c>
       <c r="G8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5.733333333333333</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.266666666666667</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>90</v>
+      </c>
+      <c r="E9" t="n">
+        <v>820000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>682149</v>
+      </c>
+      <c r="G9" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.2407407407407407</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.888888888888889</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.833333333333333</v>
+      <c r="H9" t="n">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.65</v>
       </c>
     </row>
   </sheetData>
@@ -937,7 +1182,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,37 +1249,37 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E2" t="n">
+        <v>197</v>
+      </c>
+      <c r="F2" t="n">
+        <v>160</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="K2" t="n">
         <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>210</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2443</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1748</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.10375</v>
-      </c>
-      <c r="J2" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.9</v>
       </c>
     </row>
     <row r="3">
@@ -1042,34 +1287,34 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E3" t="n">
-        <v>104</v>
+        <v>412</v>
       </c>
       <c r="F3" t="n">
-        <v>87</v>
+        <v>276</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="J3" t="n">
-        <v>2.666666666666667</v>
+        <v>2.888888888888889</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>1.833333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -1086,13 +1331,13 @@
         <v>24</v>
       </c>
       <c r="E4" t="n">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="F4" t="n">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -1105,6 +1350,528 @@
       </c>
       <c r="K4" t="n">
         <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24</v>
+      </c>
+      <c r="E5" t="n">
+        <v>104</v>
+      </c>
+      <c r="F5" t="n">
+        <v>70</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="n">
+        <v>387</v>
+      </c>
+      <c r="F6" t="n">
+        <v>262</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>70</v>
+      </c>
+      <c r="E7" t="n">
+        <v>705</v>
+      </c>
+      <c r="F7" t="n">
+        <v>538</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.733333333333333</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>40</v>
+      </c>
+      <c r="E8" t="n">
+        <v>219</v>
+      </c>
+      <c r="F8" t="n">
+        <v>159</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5.733333333333333</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.266666666666667</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>90</v>
+      </c>
+      <c r="E9" t="n">
+        <v>907</v>
+      </c>
+      <c r="F9" t="n">
+        <v>733</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_steps</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>productive_steps</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>bias_0</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bias_T</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>conductance</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>e_exoansion</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>n_expansion</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1762</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1254</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>42</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6148</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4891</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2407407407407407</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.888888888888889</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="E4" t="n">
+        <v>722</v>
+      </c>
+      <c r="F4" t="n">
+        <v>472</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24</v>
+      </c>
+      <c r="E5" t="n">
+        <v>297</v>
+      </c>
+      <c r="F5" t="n">
+        <v>249</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="n">
+        <v>673</v>
+      </c>
+      <c r="F6" t="n">
+        <v>539</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>70</v>
+      </c>
+      <c r="E7" t="n">
+        <v>50612</v>
+      </c>
+      <c r="F7" t="n">
+        <v>39638</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.733333333333333</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>40</v>
+      </c>
+      <c r="E8" t="n">
+        <v>626</v>
+      </c>
+      <c r="F8" t="n">
+        <v>427</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5.733333333333333</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.266666666666667</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/resultsc.xlsx
+++ b/graphs/resultsc.xlsx
@@ -575,13 +575,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,72 +648,37 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" t="n">
         <v>6</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E2" t="n">
-        <v>416</v>
+        <v>690</v>
       </c>
       <c r="F2" t="n">
-        <v>292</v>
+        <v>519</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="J2" t="n">
-        <v>2.666666666666667</v>
+        <v>2.8</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>6</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>24</v>
-      </c>
-      <c r="E3" t="n">
-        <v>213</v>
-      </c>
-      <c r="F3" t="n">
-        <v>132</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.666666666666667</v>
+        <v>1.733333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -721,13 +686,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -791,6 +756,11 @@
           <t>n_expansion</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
